--- a/ps2/2_5.xlsx
+++ b/ps2/2_5.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kansas-my.sharepoint.com/personal/c699k482_home_ku_edu/Documents/eecs649/eecs-649-problem-sets/ps2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5929504C-F4A6-4445-9C57-28C9B3DBA031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="8_{5929504C-F4A6-4445-9C57-28C9B3DBA031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{49E749EB-4DF1-E743-8CF9-EFF247195C2E}"/>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="500" windowWidth="27240" windowHeight="16940" xr2:uid="{2063D369-958E-C64F-9865-8F0D07530C31}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{2063D369-958E-C64F-9865-8F0D07530C31}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>t</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>s</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -406,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AF9B29C-E0E7-8E4C-9699-410320151C94}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -496,23 +499,23 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C9" si="0">IF(B3&gt;=1, 1, 0)</f>
+        <f t="shared" ref="C4:C5" si="0">IF(B3&gt;=1, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D7" si="1">IF((B3-C3)&gt;=1, 1, 0)</f>
+        <f t="shared" ref="D4:D5" si="1">IF((B3-C3)&gt;=1, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E7" si="2">IF((B3+D3)&gt;=1, 1, 0)</f>
+        <f t="shared" ref="E4:E5" si="2">IF((B3+D3)&gt;=1, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F7" si="3">IF((B3+E3)&gt;=1, 1, 0)</f>
+        <f t="shared" ref="F4:F5" si="3">IF((B3+E3)&gt;=1, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G7" si="4">IF((F3-B3)&gt;=1, 1, 0)</f>
+        <f t="shared" ref="G4:G5" si="4">IF((F3-B3)&gt;=1, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -546,114 +549,58 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <f t="shared" si="0"/>
+        <f>IF(B5&gt;=1, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="D6">
-        <f t="shared" si="1"/>
+        <f>IF((B5-C5)&gt;=1, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E6">
-        <f t="shared" si="2"/>
+        <f>IF((B5+D5)&gt;=1, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="F6">
-        <f t="shared" si="3"/>
+        <f>IF((B5+E5)&gt;=1, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="G6">
-        <f t="shared" si="4"/>
+        <f>IF((F5-B5)&gt;=1, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
       </c>
       <c r="C7">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" ref="C7" si="5">IF(B6&gt;=1, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="D7">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="D7" si="6">IF((B6-C6)&gt;=1, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E7">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" ref="E7" si="7">IF((B6+D6)&gt;=1, 1, 0)</f>
+        <v>0</v>
       </c>
       <c r="F7">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="F7" si="8">IF((B6+E6)&gt;=1, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="G7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <f t="shared" ref="D8:D9" si="5">IF((B7-C7)&gt;=1, 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <f t="shared" ref="E8:E9" si="6">IF((B7+D7)&gt;=1, 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <f t="shared" ref="F8:F9" si="7">IF((B7+E7)&gt;=1, 1, 0)</f>
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <f t="shared" ref="G8:G9" si="8">IF((F7-B7)&gt;=1, 1, 0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" ref="G7" si="9">IF((F6-B6)&gt;=1, 1, 0)</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
